--- a/2014/Norte/ACRE/relatorioAC.xlsx
+++ b/2014/Norte/ACRE/relatorioAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I232"/>
+  <dimension ref="A1:J232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Foto</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>SQ_CANDIDATO</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Código da Cor</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Cor</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Teve dificuldade para classificar?</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Houve erro na exibição da foto</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>UF</t>
         </is>
@@ -494,20 +499,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000364</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>364</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -516,6 +521,11 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -535,20 +545,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000160</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>160</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F3" t="n">
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -557,6 +567,11 @@
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -576,20 +591,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000168</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>168</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F4" t="n">
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -598,6 +613,11 @@
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -617,28 +637,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000174</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>174</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>3</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> S</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -658,20 +683,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000618</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>618</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F6" t="n">
+        <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -680,6 +705,11 @@
         </is>
       </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -699,20 +729,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000617</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>617</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F7" t="n">
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -721,6 +751,11 @@
         </is>
       </c>
       <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -740,20 +775,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000613</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>613</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F8" t="n">
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -762,6 +797,11 @@
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -781,20 +821,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000369</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>369</v>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -803,6 +843,11 @@
         </is>
       </c>
       <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -822,20 +867,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000169</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>169</v>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F10" t="n">
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -844,6 +889,11 @@
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -863,20 +913,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000327</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>327</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F11" t="n">
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -885,6 +935,11 @@
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -904,20 +959,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000177</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>177</v>
       </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F12" t="n">
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -926,6 +981,11 @@
         </is>
       </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -945,20 +1005,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000161</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>161</v>
       </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F13" t="n">
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -967,6 +1027,11 @@
         </is>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -986,20 +1051,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000614</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>614</v>
       </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1008,6 +1073,11 @@
         </is>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1027,20 +1097,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000367</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>367</v>
       </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F15" t="n">
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1049,6 +1119,11 @@
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1068,20 +1143,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000003</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F16" t="n">
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1090,6 +1165,11 @@
         </is>
       </c>
       <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1109,20 +1189,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000610</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>610</v>
       </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F17" t="n">
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1131,6 +1211,11 @@
         </is>
       </c>
       <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1150,28 +1235,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000142</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
         <v>142</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>3</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve"> S</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1191,28 +1281,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000370</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>370</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>3</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1232,20 +1327,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000173</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>173</v>
       </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F20" t="n">
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1254,6 +1349,11 @@
         </is>
       </c>
       <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1273,20 +1373,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000347</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>347</v>
       </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F21" t="n">
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1295,6 +1395,11 @@
         </is>
       </c>
       <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1314,20 +1419,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000172</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>172</v>
       </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F22" t="n">
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1336,6 +1441,11 @@
         </is>
       </c>
       <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1355,20 +1465,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000175</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>175</v>
       </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F23" t="n">
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1377,6 +1487,11 @@
         </is>
       </c>
       <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1396,20 +1511,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000615</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
         <v>615</v>
       </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F24" t="n">
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1418,6 +1533,11 @@
         </is>
       </c>
       <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1437,20 +1557,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000355</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
         <v>355</v>
       </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F25" t="n">
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1459,6 +1579,11 @@
         </is>
       </c>
       <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1478,20 +1603,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000165</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
         <v>165</v>
       </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F26" t="n">
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1500,6 +1625,11 @@
         </is>
       </c>
       <c r="I26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1519,20 +1649,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000363</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
         <v>363</v>
       </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F27" t="n">
+        <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1541,6 +1671,11 @@
         </is>
       </c>
       <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1560,20 +1695,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000178</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
         <v>178</v>
       </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F28" t="n">
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1582,6 +1717,11 @@
         </is>
       </c>
       <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1601,20 +1741,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000152</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
         <v>152</v>
       </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F29" t="n">
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1623,6 +1763,11 @@
         </is>
       </c>
       <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1642,28 +1787,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000164</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
         <v>164</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>2</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t xml:space="preserve"> Preto / Negro / Black</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1683,28 +1833,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000159</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
         <v>159</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>2</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t xml:space="preserve"> Preto / Negro / Black</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1724,20 +1879,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000158</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
         <v>158</v>
       </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F32" t="n">
+        <v>1</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1746,6 +1901,11 @@
         </is>
       </c>
       <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1765,20 +1925,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000624</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
         <v>624</v>
       </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F33" t="n">
+        <v>1</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1787,6 +1947,11 @@
         </is>
       </c>
       <c r="I33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1806,20 +1971,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000611</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
         <v>611</v>
       </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F34" t="n">
+        <v>1</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1828,6 +1993,11 @@
         </is>
       </c>
       <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1847,20 +2017,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000605</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
         <v>605</v>
       </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F35" t="n">
+        <v>1</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1869,6 +2039,11 @@
         </is>
       </c>
       <c r="I35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1888,20 +2063,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000135</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
         <v>135</v>
       </c>
-      <c r="E36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F36" t="n">
+        <v>1</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1910,6 +2085,11 @@
         </is>
       </c>
       <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1929,20 +2109,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000349</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
         <v>349</v>
       </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F37" t="n">
+        <v>1</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1951,6 +2131,11 @@
         </is>
       </c>
       <c r="I37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -1970,28 +2155,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000371</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
         <v>371</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>5</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t xml:space="preserve"> Indígena / Indigena / Indigenous</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t xml:space="preserve"> S</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="I38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2011,20 +2201,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000612</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
         <v>612</v>
       </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F39" t="n">
+        <v>1</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2033,6 +2223,11 @@
         </is>
       </c>
       <c r="I39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2052,28 +2247,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000157</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
         <v>157</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>3</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2093,20 +2293,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000761</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
         <v>761</v>
       </c>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F41" t="n">
+        <v>1</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2115,6 +2315,11 @@
         </is>
       </c>
       <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2134,20 +2339,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000141</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
         <v>141</v>
       </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F42" t="n">
+        <v>1</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2156,6 +2361,11 @@
         </is>
       </c>
       <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2175,28 +2385,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000154</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
         <v>154</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>2</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t xml:space="preserve"> Preto / Negro / Black</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H43" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2216,20 +2431,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000166</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
         <v>166</v>
       </c>
-      <c r="E44" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F44" t="n">
+        <v>1</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2238,6 +2453,11 @@
         </is>
       </c>
       <c r="I44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2257,20 +2477,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000622</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
         <v>622</v>
       </c>
-      <c r="E45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F45" t="n">
+        <v>1</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2279,6 +2499,11 @@
         </is>
       </c>
       <c r="I45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2298,20 +2523,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000180</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
         <v>180</v>
       </c>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F46" t="n">
+        <v>1</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2320,6 +2545,11 @@
         </is>
       </c>
       <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2339,20 +2569,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000167</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
         <v>167</v>
       </c>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F47" t="n">
+        <v>1</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2361,6 +2591,11 @@
         </is>
       </c>
       <c r="I47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2380,20 +2615,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000170</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
         <v>170</v>
       </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F48" t="n">
+        <v>1</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2402,6 +2637,11 @@
         </is>
       </c>
       <c r="I48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2421,20 +2661,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000603</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
         <v>603</v>
       </c>
-      <c r="E49" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F49" t="n">
+        <v>1</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2443,6 +2683,11 @@
         </is>
       </c>
       <c r="I49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2462,20 +2707,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000620</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
         <v>620</v>
       </c>
-      <c r="E50" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F50" t="n">
+        <v>1</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2484,6 +2729,11 @@
         </is>
       </c>
       <c r="I50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2503,20 +2753,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000616</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
         <v>616</v>
       </c>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F51" t="n">
+        <v>1</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2525,6 +2775,11 @@
         </is>
       </c>
       <c r="I51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2544,20 +2799,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000348</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
         <v>348</v>
       </c>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F52" t="n">
+        <v>1</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2566,6 +2821,11 @@
         </is>
       </c>
       <c r="I52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2585,20 +2845,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000153</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
         <v>153</v>
       </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F53" t="n">
+        <v>1</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2607,6 +2867,11 @@
         </is>
       </c>
       <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2626,28 +2891,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000721</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
         <v>721</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>3</v>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2667,20 +2937,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>1</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000001</t>
+        </is>
       </c>
       <c r="E55" t="n">
         <v>1</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F55" t="n">
+        <v>1</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2689,6 +2959,11 @@
         </is>
       </c>
       <c r="I55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2708,20 +2983,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000176</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
         <v>176</v>
       </c>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F56" t="n">
+        <v>1</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2730,6 +3005,11 @@
         </is>
       </c>
       <c r="I56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2749,28 +3029,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000358</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
         <v>358</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>2</v>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t xml:space="preserve"> Preto / Negro / Black</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H57" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2790,28 +3075,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000621</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
         <v>621</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>2</v>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t xml:space="preserve"> Preto / Negro / Black</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H58" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2831,20 +3121,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000353</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
         <v>353</v>
       </c>
-      <c r="E59" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F59" t="n">
+        <v>1</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2853,6 +3143,11 @@
         </is>
       </c>
       <c r="I59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2872,20 +3167,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000179</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
         <v>179</v>
       </c>
-      <c r="E60" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F60" t="n">
+        <v>1</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2894,6 +3189,11 @@
         </is>
       </c>
       <c r="I60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2913,28 +3213,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000602</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
         <v>602</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>3</v>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t xml:space="preserve"> S</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="I61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2954,28 +3259,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000366</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
         <v>366</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>3</v>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H62" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -2995,20 +3305,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000625</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
         <v>625</v>
       </c>
-      <c r="E63" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F63" t="n">
+        <v>1</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3017,6 +3327,11 @@
         </is>
       </c>
       <c r="I63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3036,20 +3351,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000365</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
         <v>365</v>
       </c>
-      <c r="E64" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F64" t="n">
+        <v>1</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3058,6 +3373,11 @@
         </is>
       </c>
       <c r="I64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3077,28 +3397,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000171</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
         <v>171</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>2</v>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t xml:space="preserve"> Preto / Negro / Black</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3118,28 +3443,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000140</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
         <v>140</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>3</v>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3159,20 +3489,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000004</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
         <v>4</v>
       </c>
-      <c r="E67" t="n">
-        <v>1</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F67" t="n">
+        <v>1</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3181,6 +3511,11 @@
         </is>
       </c>
       <c r="I67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3200,20 +3535,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000604</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
         <v>604</v>
       </c>
-      <c r="E68" t="n">
-        <v>1</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F68" t="n">
+        <v>1</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3222,6 +3557,11 @@
         </is>
       </c>
       <c r="I68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3241,20 +3581,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000608</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
         <v>608</v>
       </c>
-      <c r="E69" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F69" t="n">
+        <v>1</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3263,6 +3603,11 @@
         </is>
       </c>
       <c r="I69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3282,20 +3627,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000368</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
         <v>368</v>
       </c>
-      <c r="E70" t="n">
-        <v>1</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F70" t="n">
+        <v>1</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3304,6 +3649,11 @@
         </is>
       </c>
       <c r="I70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3323,20 +3673,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000606</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
         <v>606</v>
       </c>
-      <c r="E71" t="n">
-        <v>1</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F71" t="n">
+        <v>1</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3345,6 +3695,11 @@
         </is>
       </c>
       <c r="I71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3364,20 +3719,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000146</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
         <v>146</v>
       </c>
-      <c r="E72" t="n">
-        <v>1</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F72" t="n">
+        <v>1</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3386,6 +3741,11 @@
         </is>
       </c>
       <c r="I72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3405,20 +3765,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D73" t="n">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000607</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
         <v>607</v>
       </c>
-      <c r="E73" t="n">
-        <v>1</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F73" t="n">
+        <v>1</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3427,6 +3787,11 @@
         </is>
       </c>
       <c r="I73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3446,20 +3811,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D74" t="n">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000609</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
         <v>609</v>
       </c>
-      <c r="E74" t="n">
-        <v>1</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F74" t="n">
+        <v>1</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3468,6 +3833,11 @@
         </is>
       </c>
       <c r="I74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3487,20 +3857,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000619</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
         <v>619</v>
       </c>
-      <c r="E75" t="n">
-        <v>1</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F75" t="n">
+        <v>1</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3509,6 +3879,11 @@
         </is>
       </c>
       <c r="I75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3528,20 +3903,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000163</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
         <v>163</v>
       </c>
-      <c r="E76" t="n">
-        <v>1</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F76" t="n">
+        <v>1</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3550,6 +3925,11 @@
         </is>
       </c>
       <c r="I76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3569,20 +3949,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000623</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
         <v>623</v>
       </c>
-      <c r="E77" t="n">
-        <v>1</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F77" t="n">
+        <v>1</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3591,6 +3971,11 @@
         </is>
       </c>
       <c r="I77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3610,20 +3995,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000162</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
         <v>162</v>
       </c>
-      <c r="E78" t="n">
-        <v>1</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F78" t="n">
+        <v>1</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3632,6 +4017,11 @@
         </is>
       </c>
       <c r="I78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3651,20 +4041,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000364</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
         <v>364</v>
       </c>
-      <c r="E79" t="n">
-        <v>1</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F79" t="n">
+        <v>1</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3673,6 +4063,11 @@
         </is>
       </c>
       <c r="I79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3692,20 +4087,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000160</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
         <v>160</v>
       </c>
-      <c r="E80" t="n">
-        <v>1</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F80" t="n">
+        <v>1</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3714,6 +4109,11 @@
         </is>
       </c>
       <c r="I80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3733,20 +4133,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000168</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
         <v>168</v>
       </c>
-      <c r="E81" t="n">
-        <v>1</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F81" t="n">
+        <v>1</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3755,6 +4155,11 @@
         </is>
       </c>
       <c r="I81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3774,20 +4179,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D82" t="n">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000174</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
         <v>174</v>
       </c>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F82" t="n">
+        <v>1</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3796,6 +4201,11 @@
         </is>
       </c>
       <c r="I82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3815,20 +4225,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000618</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
         <v>618</v>
       </c>
-      <c r="E83" t="n">
-        <v>1</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F83" t="n">
+        <v>1</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3837,6 +4247,11 @@
         </is>
       </c>
       <c r="I83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3856,20 +4271,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000617</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
         <v>617</v>
       </c>
-      <c r="E84" t="n">
-        <v>1</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F84" t="n">
+        <v>1</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3878,6 +4293,11 @@
         </is>
       </c>
       <c r="I84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3897,20 +4317,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000613</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
         <v>613</v>
       </c>
-      <c r="E85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F85" t="n">
+        <v>1</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3919,6 +4339,11 @@
         </is>
       </c>
       <c r="I85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3938,20 +4363,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000369</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
         <v>369</v>
       </c>
-      <c r="E86" t="n">
-        <v>1</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F86" t="n">
+        <v>1</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3960,6 +4385,11 @@
         </is>
       </c>
       <c r="I86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -3979,20 +4409,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D87" t="n">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000169</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
         <v>169</v>
       </c>
-      <c r="E87" t="n">
-        <v>1</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F87" t="n">
+        <v>1</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4001,6 +4431,11 @@
         </is>
       </c>
       <c r="I87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4020,20 +4455,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D88" t="n">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000327</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
         <v>327</v>
       </c>
-      <c r="E88" t="n">
-        <v>1</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F88" t="n">
+        <v>1</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4042,6 +4477,11 @@
         </is>
       </c>
       <c r="I88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4061,20 +4501,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D89" t="n">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000177</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
         <v>177</v>
       </c>
-      <c r="E89" t="n">
-        <v>1</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F89" t="n">
+        <v>1</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4083,6 +4523,11 @@
         </is>
       </c>
       <c r="I89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4102,20 +4547,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000161</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
         <v>161</v>
       </c>
-      <c r="E90" t="n">
-        <v>1</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F90" t="n">
+        <v>1</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4124,6 +4569,11 @@
         </is>
       </c>
       <c r="I90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4143,20 +4593,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D91" t="n">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000614</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
         <v>614</v>
       </c>
-      <c r="E91" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F91" t="n">
+        <v>1</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4165,6 +4615,11 @@
         </is>
       </c>
       <c r="I91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4184,20 +4639,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D92" t="n">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000367</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
         <v>367</v>
       </c>
-      <c r="E92" t="n">
-        <v>1</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F92" t="n">
+        <v>1</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4206,6 +4661,11 @@
         </is>
       </c>
       <c r="I92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4225,20 +4685,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D93" t="n">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000003</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
         <v>3</v>
       </c>
-      <c r="E93" t="n">
-        <v>1</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F93" t="n">
+        <v>1</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4247,6 +4707,11 @@
         </is>
       </c>
       <c r="I93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4266,20 +4731,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000610</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
         <v>610</v>
       </c>
-      <c r="E94" t="n">
-        <v>1</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F94" t="n">
+        <v>1</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4288,6 +4753,11 @@
         </is>
       </c>
       <c r="I94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4307,20 +4777,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000142</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
         <v>142</v>
       </c>
-      <c r="E95" t="n">
-        <v>1</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F95" t="n">
+        <v>1</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4329,6 +4799,11 @@
         </is>
       </c>
       <c r="I95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4348,20 +4823,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000370</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
         <v>370</v>
       </c>
-      <c r="E96" t="n">
-        <v>1</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F96" t="n">
+        <v>1</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4370,6 +4845,11 @@
         </is>
       </c>
       <c r="I96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4389,20 +4869,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D97" t="n">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000173</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
         <v>173</v>
       </c>
-      <c r="E97" t="n">
-        <v>1</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F97" t="n">
+        <v>1</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4411,6 +4891,11 @@
         </is>
       </c>
       <c r="I97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4430,20 +4915,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D98" t="n">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000347</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
         <v>347</v>
       </c>
-      <c r="E98" t="n">
-        <v>1</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F98" t="n">
+        <v>1</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4452,6 +4937,11 @@
         </is>
       </c>
       <c r="I98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4471,20 +4961,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000172</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
         <v>172</v>
       </c>
-      <c r="E99" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F99" t="n">
+        <v>1</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4493,6 +4983,11 @@
         </is>
       </c>
       <c r="I99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4512,20 +5007,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000175</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
         <v>175</v>
       </c>
-      <c r="E100" t="n">
-        <v>1</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F100" t="n">
+        <v>1</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4534,6 +5029,11 @@
         </is>
       </c>
       <c r="I100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4553,20 +5053,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000615</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
         <v>615</v>
       </c>
-      <c r="E101" t="n">
-        <v>1</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F101" t="n">
+        <v>1</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4575,6 +5075,11 @@
         </is>
       </c>
       <c r="I101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4594,20 +5099,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000355</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
         <v>355</v>
       </c>
-      <c r="E102" t="n">
-        <v>1</v>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F102" t="n">
+        <v>1</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4616,6 +5121,11 @@
         </is>
       </c>
       <c r="I102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4635,20 +5145,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D103" t="n">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000165</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
         <v>165</v>
       </c>
-      <c r="E103" t="n">
-        <v>1</v>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F103" t="n">
+        <v>1</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4657,6 +5167,11 @@
         </is>
       </c>
       <c r="I103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4676,20 +5191,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000363</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
         <v>363</v>
       </c>
-      <c r="E104" t="n">
-        <v>1</v>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F104" t="n">
+        <v>1</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4698,6 +5213,11 @@
         </is>
       </c>
       <c r="I104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4717,20 +5237,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000178</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
         <v>178</v>
       </c>
-      <c r="E105" t="n">
-        <v>1</v>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F105" t="n">
+        <v>1</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4739,6 +5259,11 @@
         </is>
       </c>
       <c r="I105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4758,20 +5283,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000152</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
         <v>152</v>
       </c>
-      <c r="E106" t="n">
-        <v>1</v>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F106" t="n">
+        <v>1</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4780,6 +5305,11 @@
         </is>
       </c>
       <c r="I106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4799,20 +5329,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000164</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
         <v>164</v>
       </c>
-      <c r="E107" t="n">
-        <v>1</v>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F107" t="n">
+        <v>1</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4821,6 +5351,11 @@
         </is>
       </c>
       <c r="I107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4840,28 +5375,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000159</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
         <v>159</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>3</v>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H108" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4881,20 +5421,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000158</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
         <v>158</v>
       </c>
-      <c r="E109" t="n">
-        <v>1</v>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F109" t="n">
+        <v>1</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -4903,6 +5443,11 @@
         </is>
       </c>
       <c r="I109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4922,20 +5467,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D110" t="n">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000624</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
         <v>624</v>
       </c>
-      <c r="E110" t="n">
-        <v>1</v>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F110" t="n">
+        <v>1</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -4944,6 +5489,11 @@
         </is>
       </c>
       <c r="I110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -4963,20 +5513,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D111" t="n">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000611</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
         <v>611</v>
       </c>
-      <c r="E111" t="n">
-        <v>1</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F111" t="n">
+        <v>1</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4985,6 +5535,11 @@
         </is>
       </c>
       <c r="I111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5004,20 +5559,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000605</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
         <v>605</v>
       </c>
-      <c r="E112" t="n">
-        <v>1</v>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F112" t="n">
+        <v>1</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5026,6 +5581,11 @@
         </is>
       </c>
       <c r="I112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5045,20 +5605,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D113" t="n">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000135</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
         <v>135</v>
       </c>
-      <c r="E113" t="n">
-        <v>1</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F113" t="n">
+        <v>1</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5067,6 +5627,11 @@
         </is>
       </c>
       <c r="I113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5086,20 +5651,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000349</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
         <v>349</v>
       </c>
-      <c r="E114" t="n">
-        <v>1</v>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F114" t="n">
+        <v>1</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5108,6 +5673,11 @@
         </is>
       </c>
       <c r="I114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5127,28 +5697,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000371</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
         <v>371</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>5</v>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t xml:space="preserve"> Indígena / Indigena / Indigenous</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H115" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5168,20 +5743,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000612</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
         <v>612</v>
       </c>
-      <c r="E116" t="n">
-        <v>1</v>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F116" t="n">
+        <v>1</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5190,6 +5765,11 @@
         </is>
       </c>
       <c r="I116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5209,28 +5789,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D117" t="n">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000157</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
         <v>157</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>3</v>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H117" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5250,20 +5835,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000761</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
         <v>761</v>
       </c>
-      <c r="E118" t="n">
-        <v>1</v>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F118" t="n">
+        <v>1</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5272,6 +5857,11 @@
         </is>
       </c>
       <c r="I118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5291,20 +5881,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000141</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
         <v>141</v>
       </c>
-      <c r="E119" t="n">
-        <v>1</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F119" t="n">
+        <v>1</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5313,6 +5903,11 @@
         </is>
       </c>
       <c r="I119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5332,28 +5927,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000154</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
         <v>154</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
         <v>2</v>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t xml:space="preserve"> Preto / Negro / Black</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H120" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5373,20 +5973,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000166</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
         <v>166</v>
       </c>
-      <c r="E121" t="n">
-        <v>1</v>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F121" t="n">
+        <v>1</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5395,6 +5995,11 @@
         </is>
       </c>
       <c r="I121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5414,20 +6019,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000622</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
         <v>622</v>
       </c>
-      <c r="E122" t="n">
-        <v>1</v>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F122" t="n">
+        <v>1</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5436,6 +6041,11 @@
         </is>
       </c>
       <c r="I122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5455,20 +6065,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000180</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
         <v>180</v>
       </c>
-      <c r="E123" t="n">
-        <v>1</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F123" t="n">
+        <v>1</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5477,6 +6087,11 @@
         </is>
       </c>
       <c r="I123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5496,28 +6111,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000167</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
         <v>167</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
         <v>3</v>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H124" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5537,20 +6157,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000170</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
         <v>170</v>
       </c>
-      <c r="E125" t="n">
-        <v>1</v>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F125" t="n">
+        <v>1</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5559,6 +6179,11 @@
         </is>
       </c>
       <c r="I125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5578,28 +6203,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000603</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
         <v>603</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
         <v>3</v>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H126" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5619,20 +6249,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000620</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
         <v>620</v>
       </c>
-      <c r="E127" t="n">
-        <v>1</v>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F127" t="n">
+        <v>1</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5641,6 +6271,11 @@
         </is>
       </c>
       <c r="I127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5660,20 +6295,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000616</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
         <v>616</v>
       </c>
-      <c r="E128" t="n">
-        <v>1</v>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F128" t="n">
+        <v>1</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5682,6 +6317,11 @@
         </is>
       </c>
       <c r="I128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5701,20 +6341,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000348</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
         <v>348</v>
       </c>
-      <c r="E129" t="n">
-        <v>1</v>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F129" t="n">
+        <v>1</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5723,6 +6363,11 @@
         </is>
       </c>
       <c r="I129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5742,20 +6387,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000153</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
         <v>153</v>
       </c>
-      <c r="E130" t="n">
-        <v>1</v>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F130" t="n">
+        <v>1</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5764,6 +6409,11 @@
         </is>
       </c>
       <c r="I130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5783,28 +6433,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000721</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
         <v>721</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>3</v>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H131" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5824,20 +6479,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D132" t="n">
-        <v>1</v>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000001</t>
+        </is>
       </c>
       <c r="E132" t="n">
         <v>1</v>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F132" t="n">
+        <v>1</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5846,6 +6501,11 @@
         </is>
       </c>
       <c r="I132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5865,20 +6525,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000176</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
         <v>176</v>
       </c>
-      <c r="E133" t="n">
-        <v>1</v>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F133" t="n">
+        <v>1</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -5887,6 +6547,11 @@
         </is>
       </c>
       <c r="I133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5906,28 +6571,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D134" t="n">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000358</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
         <v>358</v>
       </c>
-      <c r="E134" t="n">
+      <c r="F134" t="n">
         <v>3</v>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H134" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5947,20 +6617,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000621</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
         <v>621</v>
       </c>
-      <c r="E135" t="n">
-        <v>1</v>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F135" t="n">
+        <v>1</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -5969,6 +6639,11 @@
         </is>
       </c>
       <c r="I135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -5988,20 +6663,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000353</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
         <v>353</v>
       </c>
-      <c r="E136" t="n">
-        <v>1</v>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F136" t="n">
+        <v>1</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6010,6 +6685,11 @@
         </is>
       </c>
       <c r="I136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6029,20 +6709,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D137" t="n">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000179</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
         <v>179</v>
       </c>
-      <c r="E137" t="n">
-        <v>1</v>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F137" t="n">
+        <v>1</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6051,6 +6731,11 @@
         </is>
       </c>
       <c r="I137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6070,28 +6755,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D138" t="n">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000602</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
         <v>602</v>
       </c>
-      <c r="E138" t="n">
+      <c r="F138" t="n">
         <v>3</v>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H138" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6111,20 +6801,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000366</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
         <v>366</v>
       </c>
-      <c r="E139" t="n">
-        <v>1</v>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F139" t="n">
+        <v>1</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -6133,6 +6823,11 @@
         </is>
       </c>
       <c r="I139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6152,20 +6847,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000625</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
         <v>625</v>
       </c>
-      <c r="E140" t="n">
-        <v>1</v>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F140" t="n">
+        <v>1</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -6174,6 +6869,11 @@
         </is>
       </c>
       <c r="I140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6193,20 +6893,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000365</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
         <v>365</v>
       </c>
-      <c r="E141" t="n">
-        <v>1</v>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F141" t="n">
+        <v>1</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -6215,6 +6915,11 @@
         </is>
       </c>
       <c r="I141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6234,28 +6939,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000171</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
         <v>171</v>
       </c>
-      <c r="E142" t="n">
+      <c r="F142" t="n">
         <v>3</v>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H142" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6275,20 +6985,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000140</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
         <v>140</v>
       </c>
-      <c r="E143" t="n">
-        <v>1</v>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F143" t="n">
+        <v>1</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -6297,6 +7007,11 @@
         </is>
       </c>
       <c r="I143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6316,20 +7031,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000004</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
         <v>4</v>
       </c>
-      <c r="E144" t="n">
-        <v>1</v>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F144" t="n">
+        <v>1</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -6338,6 +7053,11 @@
         </is>
       </c>
       <c r="I144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6357,20 +7077,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000604</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
         <v>604</v>
       </c>
-      <c r="E145" t="n">
-        <v>1</v>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F145" t="n">
+        <v>1</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -6379,6 +7099,11 @@
         </is>
       </c>
       <c r="I145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6398,20 +7123,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000608</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
         <v>608</v>
       </c>
-      <c r="E146" t="n">
-        <v>1</v>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F146" t="n">
+        <v>1</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -6420,6 +7145,11 @@
         </is>
       </c>
       <c r="I146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6439,20 +7169,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D147" t="n">
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000368</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
         <v>368</v>
       </c>
-      <c r="E147" t="n">
-        <v>1</v>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F147" t="n">
+        <v>1</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6461,6 +7191,11 @@
         </is>
       </c>
       <c r="I147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6480,20 +7215,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D148" t="n">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000606</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
         <v>606</v>
       </c>
-      <c r="E148" t="n">
-        <v>1</v>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F148" t="n">
+        <v>1</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6502,6 +7237,11 @@
         </is>
       </c>
       <c r="I148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6521,20 +7261,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D149" t="n">
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000146</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
         <v>146</v>
       </c>
-      <c r="E149" t="n">
-        <v>1</v>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F149" t="n">
+        <v>1</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6543,6 +7283,11 @@
         </is>
       </c>
       <c r="I149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6562,20 +7307,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D150" t="n">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000607</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
         <v>607</v>
       </c>
-      <c r="E150" t="n">
-        <v>1</v>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F150" t="n">
+        <v>1</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -6584,6 +7329,11 @@
         </is>
       </c>
       <c r="I150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6603,20 +7353,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D151" t="n">
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000609</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
         <v>609</v>
       </c>
-      <c r="E151" t="n">
-        <v>1</v>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F151" t="n">
+        <v>1</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6625,6 +7375,11 @@
         </is>
       </c>
       <c r="I151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6644,20 +7399,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D152" t="n">
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000619</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
         <v>619</v>
       </c>
-      <c r="E152" t="n">
-        <v>1</v>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F152" t="n">
+        <v>1</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -6666,6 +7421,11 @@
         </is>
       </c>
       <c r="I152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6685,20 +7445,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D153" t="n">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000163</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
         <v>163</v>
       </c>
-      <c r="E153" t="n">
-        <v>1</v>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F153" t="n">
+        <v>1</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6707,6 +7467,11 @@
         </is>
       </c>
       <c r="I153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6726,20 +7491,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D154" t="n">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000623</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
         <v>623</v>
       </c>
-      <c r="E154" t="n">
-        <v>1</v>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F154" t="n">
+        <v>1</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -6748,6 +7513,11 @@
         </is>
       </c>
       <c r="I154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6767,20 +7537,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D155" t="n">
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000162</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
         <v>162</v>
       </c>
-      <c r="E155" t="n">
-        <v>1</v>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F155" t="n">
+        <v>1</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6789,6 +7559,11 @@
         </is>
       </c>
       <c r="I155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6808,20 +7583,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D156" t="n">
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000364</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
         <v>364</v>
       </c>
-      <c r="E156" t="n">
-        <v>1</v>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F156" t="n">
+        <v>1</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -6830,6 +7605,11 @@
         </is>
       </c>
       <c r="I156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6849,20 +7629,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D157" t="n">
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000160</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
         <v>160</v>
       </c>
-      <c r="E157" t="n">
-        <v>1</v>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F157" t="n">
+        <v>1</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -6871,6 +7651,11 @@
         </is>
       </c>
       <c r="I157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6890,28 +7675,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000168</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
         <v>168</v>
       </c>
-      <c r="E158" t="n">
+      <c r="F158" t="n">
         <v>3</v>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
+      <c r="H158" t="inlineStr">
         <is>
           <t xml:space="preserve"> S</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="I158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6931,20 +7721,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000174</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
         <v>174</v>
       </c>
-      <c r="E159" t="n">
-        <v>1</v>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F159" t="n">
+        <v>1</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -6953,6 +7743,11 @@
         </is>
       </c>
       <c r="I159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -6972,28 +7767,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000618</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
         <v>618</v>
       </c>
-      <c r="E160" t="n">
+      <c r="F160" t="n">
         <v>3</v>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t xml:space="preserve"> S</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="I160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7013,20 +7813,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000617</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
         <v>617</v>
       </c>
-      <c r="E161" t="n">
-        <v>1</v>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F161" t="n">
+        <v>1</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -7035,6 +7835,11 @@
         </is>
       </c>
       <c r="I161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7054,28 +7859,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000613</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
         <v>613</v>
       </c>
-      <c r="E162" t="n">
+      <c r="F162" t="n">
         <v>3</v>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t xml:space="preserve"> S</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="I162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7095,20 +7905,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000369</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
         <v>369</v>
       </c>
-      <c r="E163" t="n">
-        <v>1</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F163" t="n">
+        <v>1</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -7117,6 +7927,11 @@
         </is>
       </c>
       <c r="I163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7136,20 +7951,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D164" t="n">
+      <c r="D164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000169</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
         <v>169</v>
       </c>
-      <c r="E164" t="n">
-        <v>1</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F164" t="n">
+        <v>1</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -7158,6 +7973,11 @@
         </is>
       </c>
       <c r="I164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7177,20 +7997,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D165" t="n">
+      <c r="D165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000327</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
         <v>327</v>
       </c>
-      <c r="E165" t="n">
-        <v>1</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F165" t="n">
+        <v>1</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -7199,6 +8019,11 @@
         </is>
       </c>
       <c r="I165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7218,20 +8043,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D166" t="n">
+      <c r="D166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000177</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
         <v>177</v>
       </c>
-      <c r="E166" t="n">
-        <v>1</v>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F166" t="n">
+        <v>1</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -7240,6 +8065,11 @@
         </is>
       </c>
       <c r="I166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7259,20 +8089,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D167" t="n">
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000161</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
         <v>161</v>
       </c>
-      <c r="E167" t="n">
-        <v>1</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F167" t="n">
+        <v>1</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -7281,6 +8111,11 @@
         </is>
       </c>
       <c r="I167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7300,20 +8135,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D168" t="n">
+      <c r="D168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000614</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
         <v>614</v>
       </c>
-      <c r="E168" t="n">
-        <v>1</v>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F168" t="n">
+        <v>1</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -7322,6 +8157,11 @@
         </is>
       </c>
       <c r="I168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7341,28 +8181,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000367</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
         <v>367</v>
       </c>
-      <c r="E169" t="n">
+      <c r="F169" t="n">
         <v>3</v>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
+      <c r="H169" t="inlineStr">
         <is>
           <t xml:space="preserve"> S</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="I169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7382,20 +8227,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D170" t="n">
+      <c r="D170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000003</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
         <v>3</v>
       </c>
-      <c r="E170" t="n">
-        <v>1</v>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F170" t="n">
+        <v>1</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -7404,6 +8249,11 @@
         </is>
       </c>
       <c r="I170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7423,28 +8273,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000610</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
         <v>610</v>
       </c>
-      <c r="E171" t="n">
+      <c r="F171" t="n">
         <v>3</v>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
+      <c r="H171" t="inlineStr">
         <is>
           <t xml:space="preserve"> S</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="I171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7464,28 +8319,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000142</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
         <v>142</v>
       </c>
-      <c r="E172" t="n">
+      <c r="F172" t="n">
         <v>2</v>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t xml:space="preserve"> Preto / Negro / Black</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
+      <c r="H172" t="inlineStr">
         <is>
           <t xml:space="preserve"> S</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="I172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7505,28 +8365,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D173" t="n">
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000370</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
         <v>370</v>
       </c>
-      <c r="E173" t="n">
+      <c r="F173" t="n">
         <v>2</v>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t xml:space="preserve"> Preto / Negro / Black</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H173" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7546,20 +8411,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="D174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000173</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
         <v>173</v>
       </c>
-      <c r="E174" t="n">
-        <v>1</v>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F174" t="n">
+        <v>1</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -7568,6 +8433,11 @@
         </is>
       </c>
       <c r="I174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7587,20 +8457,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000347</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
         <v>347</v>
       </c>
-      <c r="E175" t="n">
-        <v>1</v>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F175" t="n">
+        <v>1</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -7609,6 +8479,11 @@
         </is>
       </c>
       <c r="I175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7628,20 +8503,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000172</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
         <v>172</v>
       </c>
-      <c r="E176" t="n">
-        <v>1</v>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F176" t="n">
+        <v>1</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -7650,6 +8525,11 @@
         </is>
       </c>
       <c r="I176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7669,20 +8549,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000175</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
         <v>175</v>
       </c>
-      <c r="E177" t="n">
-        <v>1</v>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F177" t="n">
+        <v>1</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -7691,6 +8571,11 @@
         </is>
       </c>
       <c r="I177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7710,20 +8595,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000615</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
         <v>615</v>
       </c>
-      <c r="E178" t="n">
-        <v>1</v>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F178" t="n">
+        <v>1</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7732,6 +8617,11 @@
         </is>
       </c>
       <c r="I178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7751,20 +8641,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000355</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
         <v>355</v>
       </c>
-      <c r="E179" t="n">
-        <v>1</v>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F179" t="n">
+        <v>1</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -7773,6 +8663,11 @@
         </is>
       </c>
       <c r="I179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7792,28 +8687,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000165</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
         <v>165</v>
       </c>
-      <c r="E180" t="n">
+      <c r="F180" t="n">
         <v>3</v>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
+      <c r="H180" t="inlineStr">
         <is>
           <t xml:space="preserve"> S</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="I180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7833,28 +8733,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000363</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
         <v>363</v>
       </c>
-      <c r="E181" t="n">
+      <c r="F181" t="n">
         <v>3</v>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
+      <c r="H181" t="inlineStr">
         <is>
           <t xml:space="preserve"> S</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="I181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7874,20 +8779,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000178</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
         <v>178</v>
       </c>
-      <c r="E182" t="n">
-        <v>1</v>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F182" t="n">
+        <v>1</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -7896,6 +8801,11 @@
         </is>
       </c>
       <c r="I182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7915,20 +8825,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000152</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
         <v>152</v>
       </c>
-      <c r="E183" t="n">
-        <v>1</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F183" t="n">
+        <v>1</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -7937,6 +8847,11 @@
         </is>
       </c>
       <c r="I183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7956,28 +8871,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000164</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
         <v>164</v>
       </c>
-      <c r="E184" t="n">
+      <c r="F184" t="n">
         <v>3</v>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H184" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -7997,28 +8917,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000159</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
         <v>159</v>
       </c>
-      <c r="E185" t="n">
+      <c r="F185" t="n">
         <v>2</v>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t xml:space="preserve"> Preto / Negro / Black</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H185" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8038,20 +8963,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000158</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
         <v>158</v>
       </c>
-      <c r="E186" t="n">
-        <v>1</v>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F186" t="n">
+        <v>1</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -8060,6 +8985,11 @@
         </is>
       </c>
       <c r="I186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8079,20 +9009,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D187" t="n">
+      <c r="D187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000624</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
         <v>624</v>
       </c>
-      <c r="E187" t="n">
-        <v>1</v>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F187" t="n">
+        <v>1</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -8101,6 +9031,11 @@
         </is>
       </c>
       <c r="I187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8120,20 +9055,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D188" t="n">
+      <c r="D188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000611</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
         <v>611</v>
       </c>
-      <c r="E188" t="n">
-        <v>1</v>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F188" t="n">
+        <v>1</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -8142,6 +9077,11 @@
         </is>
       </c>
       <c r="I188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8161,20 +9101,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000605</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
         <v>605</v>
       </c>
-      <c r="E189" t="n">
-        <v>1</v>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F189" t="n">
+        <v>1</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -8183,6 +9123,11 @@
         </is>
       </c>
       <c r="I189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8202,20 +9147,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D190" t="n">
+      <c r="D190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000135</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
         <v>135</v>
       </c>
-      <c r="E190" t="n">
-        <v>1</v>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F190" t="n">
+        <v>1</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -8224,6 +9169,11 @@
         </is>
       </c>
       <c r="I190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8243,20 +9193,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D191" t="n">
+      <c r="D191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000349</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
         <v>349</v>
       </c>
-      <c r="E191" t="n">
-        <v>1</v>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F191" t="n">
+        <v>1</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -8265,6 +9215,11 @@
         </is>
       </c>
       <c r="I191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8284,28 +9239,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D192" t="n">
+      <c r="D192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000371</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
         <v>371</v>
       </c>
-      <c r="E192" t="n">
+      <c r="F192" t="n">
         <v>5</v>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t xml:space="preserve"> Indígena / Indigena / Indigenous</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H192" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8325,20 +9285,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D193" t="n">
+      <c r="D193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000612</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
         <v>612</v>
       </c>
-      <c r="E193" t="n">
-        <v>1</v>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F193" t="n">
+        <v>1</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -8347,6 +9307,11 @@
         </is>
       </c>
       <c r="I193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8366,28 +9331,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D194" t="n">
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000157</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
         <v>157</v>
       </c>
-      <c r="E194" t="n">
+      <c r="F194" t="n">
         <v>2</v>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t xml:space="preserve"> Preto / Negro / Black</t>
         </is>
       </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H194" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8407,20 +9377,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D195" t="n">
+      <c r="D195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000761</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
         <v>761</v>
       </c>
-      <c r="E195" t="n">
-        <v>1</v>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F195" t="n">
+        <v>1</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -8429,6 +9399,11 @@
         </is>
       </c>
       <c r="I195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8448,20 +9423,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D196" t="n">
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000141</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
         <v>141</v>
       </c>
-      <c r="E196" t="n">
-        <v>1</v>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F196" t="n">
+        <v>1</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -8470,6 +9445,11 @@
         </is>
       </c>
       <c r="I196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8489,28 +9469,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000154</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
         <v>154</v>
       </c>
-      <c r="E197" t="n">
+      <c r="F197" t="n">
         <v>2</v>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t xml:space="preserve"> Preto / Negro / Black</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H197" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8530,20 +9515,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000166</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
         <v>166</v>
       </c>
-      <c r="E198" t="n">
-        <v>1</v>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F198" t="n">
+        <v>1</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -8552,6 +9537,11 @@
         </is>
       </c>
       <c r="I198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8571,20 +9561,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000622</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
         <v>622</v>
       </c>
-      <c r="E199" t="n">
-        <v>1</v>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F199" t="n">
+        <v>1</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -8593,6 +9583,11 @@
         </is>
       </c>
       <c r="I199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8612,20 +9607,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D200" t="n">
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000180</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
         <v>180</v>
       </c>
-      <c r="E200" t="n">
-        <v>1</v>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F200" t="n">
+        <v>1</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -8634,6 +9629,11 @@
         </is>
       </c>
       <c r="I200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8653,28 +9653,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D201" t="n">
+      <c r="D201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000167</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
         <v>167</v>
       </c>
-      <c r="E201" t="n">
+      <c r="F201" t="n">
         <v>3</v>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
+      <c r="H201" t="inlineStr">
         <is>
           <t xml:space="preserve"> S</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="I201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8694,20 +9699,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D202" t="n">
+      <c r="D202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000170</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
         <v>170</v>
       </c>
-      <c r="E202" t="n">
-        <v>1</v>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F202" t="n">
+        <v>1</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -8716,6 +9721,11 @@
         </is>
       </c>
       <c r="I202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8735,20 +9745,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D203" t="n">
+      <c r="D203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000603</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
         <v>603</v>
       </c>
-      <c r="E203" t="n">
-        <v>1</v>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F203" t="n">
+        <v>1</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -8757,6 +9767,11 @@
         </is>
       </c>
       <c r="I203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8776,20 +9791,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000620</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
         <v>620</v>
       </c>
-      <c r="E204" t="n">
-        <v>1</v>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F204" t="n">
+        <v>1</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -8798,6 +9813,11 @@
         </is>
       </c>
       <c r="I204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8817,20 +9837,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D205" t="n">
+      <c r="D205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000616</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
         <v>616</v>
       </c>
-      <c r="E205" t="n">
-        <v>1</v>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F205" t="n">
+        <v>1</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -8839,6 +9859,11 @@
         </is>
       </c>
       <c r="I205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8858,28 +9883,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D206" t="n">
+      <c r="D206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000348</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
         <v>348</v>
       </c>
-      <c r="E206" t="n">
+      <c r="F206" t="n">
         <v>3</v>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr">
+      <c r="H206" t="inlineStr">
         <is>
           <t xml:space="preserve"> S</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="I206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8899,20 +9929,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D207" t="n">
+      <c r="D207" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000153</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
         <v>153</v>
       </c>
-      <c r="E207" t="n">
-        <v>1</v>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F207" t="n">
+        <v>1</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -8921,6 +9951,11 @@
         </is>
       </c>
       <c r="I207" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8940,28 +9975,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D208" t="n">
+      <c r="D208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000721</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
         <v>721</v>
       </c>
-      <c r="E208" t="n">
+      <c r="F208" t="n">
         <v>2</v>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t xml:space="preserve"> Preto / Negro / Black</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H208" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -8981,20 +10021,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D209" t="n">
-        <v>1</v>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000001</t>
+        </is>
       </c>
       <c r="E209" t="n">
         <v>1</v>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F209" t="n">
+        <v>1</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -9003,6 +10043,11 @@
         </is>
       </c>
       <c r="I209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9022,20 +10067,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D210" t="n">
+      <c r="D210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000176</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
         <v>176</v>
       </c>
-      <c r="E210" t="n">
-        <v>1</v>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F210" t="n">
+        <v>1</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -9044,6 +10089,11 @@
         </is>
       </c>
       <c r="I210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9063,28 +10113,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D211" t="n">
+      <c r="D211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000358</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
         <v>358</v>
       </c>
-      <c r="E211" t="n">
+      <c r="F211" t="n">
         <v>3</v>
       </c>
-      <c r="F211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G211" t="inlineStr">
+      <c r="H211" t="inlineStr">
         <is>
           <t xml:space="preserve"> S</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="I211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9104,28 +10159,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000621</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
         <v>621</v>
       </c>
-      <c r="E212" t="n">
+      <c r="F212" t="n">
         <v>2</v>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t xml:space="preserve"> Preto / Negro / Black</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H212" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9145,20 +10205,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000353</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
         <v>353</v>
       </c>
-      <c r="E213" t="n">
-        <v>1</v>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F213" t="n">
+        <v>1</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -9167,6 +10227,11 @@
         </is>
       </c>
       <c r="I213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9186,20 +10251,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000179</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
         <v>179</v>
       </c>
-      <c r="E214" t="n">
-        <v>1</v>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F214" t="n">
+        <v>1</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -9208,6 +10273,11 @@
         </is>
       </c>
       <c r="I214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9227,20 +10297,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000602</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
         <v>602</v>
       </c>
-      <c r="E215" t="n">
-        <v>1</v>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F215" t="n">
+        <v>1</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -9249,6 +10319,11 @@
         </is>
       </c>
       <c r="I215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9268,20 +10343,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000366</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
         <v>366</v>
       </c>
-      <c r="E216" t="n">
-        <v>1</v>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F216" t="n">
+        <v>1</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -9290,6 +10365,11 @@
         </is>
       </c>
       <c r="I216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9309,20 +10389,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000625</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
         <v>625</v>
       </c>
-      <c r="E217" t="n">
-        <v>1</v>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F217" t="n">
+        <v>1</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -9331,6 +10411,11 @@
         </is>
       </c>
       <c r="I217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9350,28 +10435,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000365</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
         <v>365</v>
       </c>
-      <c r="E218" t="n">
+      <c r="F218" t="n">
         <v>3</v>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr">
+      <c r="H218" t="inlineStr">
         <is>
           <t xml:space="preserve"> S</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="I218" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9391,28 +10481,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D219" t="n">
+      <c r="D219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000171</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
         <v>171</v>
       </c>
-      <c r="E219" t="n">
+      <c r="F219" t="n">
         <v>3</v>
       </c>
-      <c r="F219" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr">
+      <c r="H219" t="inlineStr">
         <is>
           <t xml:space="preserve"> S</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="I219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9432,28 +10527,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000140</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
         <v>140</v>
       </c>
-      <c r="E220" t="n">
+      <c r="F220" t="n">
         <v>3</v>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr">
+      <c r="H220" t="inlineStr">
         <is>
           <t xml:space="preserve"> S</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="I220" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9473,20 +10573,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000004</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
         <v>4</v>
       </c>
-      <c r="E221" t="n">
-        <v>1</v>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F221" t="n">
+        <v>1</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -9495,6 +10595,11 @@
         </is>
       </c>
       <c r="I221" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9514,28 +10619,33 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D222" t="n">
+      <c r="D222" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000604</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
         <v>604</v>
       </c>
-      <c r="E222" t="n">
+      <c r="F222" t="n">
         <v>3</v>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t xml:space="preserve"> Pardo / “Moreno” / Brown</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> N</t>
-        </is>
-      </c>
       <c r="H222" t="inlineStr">
         <is>
           <t xml:space="preserve"> N</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9555,20 +10665,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D223" t="n">
+      <c r="D223" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000608</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
         <v>608</v>
       </c>
-      <c r="E223" t="n">
-        <v>1</v>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F223" t="n">
+        <v>1</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -9577,6 +10687,11 @@
         </is>
       </c>
       <c r="I223" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9596,20 +10711,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D224" t="n">
+      <c r="D224" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000368</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
         <v>368</v>
       </c>
-      <c r="E224" t="n">
-        <v>1</v>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F224" t="n">
+        <v>1</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -9618,6 +10733,11 @@
         </is>
       </c>
       <c r="I224" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9637,20 +10757,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000606</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
         <v>606</v>
       </c>
-      <c r="E225" t="n">
-        <v>1</v>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F225" t="n">
+        <v>1</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -9659,6 +10779,11 @@
         </is>
       </c>
       <c r="I225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9678,20 +10803,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000146</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
         <v>146</v>
       </c>
-      <c r="E226" t="n">
-        <v>1</v>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F226" t="n">
+        <v>1</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -9700,6 +10825,11 @@
         </is>
       </c>
       <c r="I226" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9719,20 +10849,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D227" t="n">
+      <c r="D227" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000607</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
         <v>607</v>
       </c>
-      <c r="E227" t="n">
-        <v>1</v>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F227" t="n">
+        <v>1</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -9741,6 +10871,11 @@
         </is>
       </c>
       <c r="I227" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9760,20 +10895,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D228" t="n">
+      <c r="D228" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000609</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
         <v>609</v>
       </c>
-      <c r="E228" t="n">
-        <v>1</v>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F228" t="n">
+        <v>1</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -9782,6 +10917,11 @@
         </is>
       </c>
       <c r="I228" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9801,20 +10941,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D229" t="n">
+      <c r="D229" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000619</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
         <v>619</v>
       </c>
-      <c r="E229" t="n">
-        <v>1</v>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F229" t="n">
+        <v>1</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -9823,6 +10963,11 @@
         </is>
       </c>
       <c r="I229" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9842,20 +10987,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000163</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
         <v>163</v>
       </c>
-      <c r="E230" t="n">
-        <v>1</v>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F230" t="n">
+        <v>1</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -9864,6 +11009,11 @@
         </is>
       </c>
       <c r="I230" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9883,20 +11033,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D231" t="n">
+      <c r="D231" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000623</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
         <v>623</v>
       </c>
-      <c r="E231" t="n">
-        <v>1</v>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F231" t="n">
+        <v>1</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -9905,6 +11055,11 @@
         </is>
       </c>
       <c r="I231" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
@@ -9924,20 +11079,20 @@
           <t xml:space="preserve"> Candidatos Brasil 2014 (Candidaturas Majoritárias)</t>
         </is>
       </c>
-      <c r="D232" t="n">
+      <c r="D232" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> foto_cand2014_div/FAC10000000162</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
         <v>162</v>
       </c>
-      <c r="E232" t="n">
-        <v>1</v>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Branco / Blanco / White</t>
-        </is>
+      <c r="F232" t="n">
+        <v>1</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N</t>
+          <t xml:space="preserve"> Branco / Blanco / White</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -9946,6 +11101,11 @@
         </is>
       </c>
       <c r="I232" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> N</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
         <is>
           <t>AC</t>
         </is>
